--- a/SuRGE_Sharepoint/data/CIN/CH4_211_madison/dataSheets/surgeData211.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_211_madison/dataSheets/surgeData211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_211_madison/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="890" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED53B97-FC1D-4564-BD3B-70852BB1089F}"/>
+  <xr:revisionPtr revIDLastSave="899" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89787CF2-F44C-4E01-9CAB-B5725700A06A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="dissolved.gas.dictionay" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">data!$B$2:$BN$47</definedName>
+    <definedName name="_xlnm.Database">data!$B$2:$BN$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="237">
   <si>
     <t>lake.id</t>
   </si>
@@ -1429,9 +1429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1469,7 +1469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1575,7 +1575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1717,7 +1717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1728,8 +1728,8 @@
   <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO19" sqref="BO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,10 +2089,67 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D3">
+        <v>39.866570000000003</v>
+      </c>
+      <c r="E3">
+        <v>-83.37724</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="J3">
+        <v>157</v>
+      </c>
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R3" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="27">
+        <v>0.82008101851851845</v>
+      </c>
+      <c r="U3">
+        <v>35</v>
+      </c>
+      <c r="V3">
+        <v>35</v>
+      </c>
+      <c r="W3">
+        <v>1.2</v>
+      </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
+      <c r="Y3">
+        <v>22.96</v>
+      </c>
+      <c r="Z3">
+        <v>12.25</v>
+      </c>
+      <c r="AD3">
+        <v>17.7</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2117,6 +2174,18 @@
       </c>
       <c r="AP3" t="s">
         <v>162</v>
+      </c>
+      <c r="AQ3">
+        <v>0.7</v>
+      </c>
+      <c r="AR3">
+        <v>21.9</v>
+      </c>
+      <c r="AS3">
+        <v>11.34</v>
+      </c>
+      <c r="AW3">
+        <v>20.3</v>
       </c>
       <c r="AZ3">
         <v>1</v>
@@ -2169,67 +2238,10 @@
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4">
-        <v>39.866570000000003</v>
-      </c>
-      <c r="E4">
-        <v>-83.37724</v>
-      </c>
-      <c r="F4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0.6381944444444444</v>
-      </c>
-      <c r="H4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="J4">
-        <v>157</v>
-      </c>
-      <c r="L4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="27">
-        <v>0.82008101851851845</v>
-      </c>
-      <c r="U4">
-        <v>35</v>
-      </c>
-      <c r="V4">
-        <v>35</v>
-      </c>
-      <c r="W4">
-        <v>1.2</v>
-      </c>
-      <c r="X4">
-        <v>0.1</v>
-      </c>
-      <c r="Y4">
-        <v>22.96</v>
-      </c>
-      <c r="Z4">
-        <v>12.25</v>
-      </c>
-      <c r="AD4">
-        <v>17.7</v>
+        <v>177</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -2254,18 +2266,6 @@
       </c>
       <c r="AP4" t="s">
         <v>162</v>
-      </c>
-      <c r="AQ4">
-        <v>0.7</v>
-      </c>
-      <c r="AR4">
-        <v>21.9</v>
-      </c>
-      <c r="AS4">
-        <v>11.34</v>
-      </c>
-      <c r="AW4">
-        <v>20.3</v>
       </c>
       <c r="AZ4">
         <v>1</v>
@@ -2297,10 +2297,58 @@
         <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>39.870139999999999</v>
+      </c>
+      <c r="E5">
+        <v>-83.375349999999997</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="H5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="27">
+        <v>0.76612268518518523</v>
+      </c>
+      <c r="U5">
+        <v>35</v>
+      </c>
+      <c r="V5">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0.1</v>
+      </c>
+      <c r="Y5">
+        <v>23.83</v>
+      </c>
+      <c r="Z5">
+        <v>15.52</v>
+      </c>
+      <c r="AD5">
+        <v>16.8</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -2356,58 +2404,10 @@
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6">
-        <v>39.870139999999999</v>
-      </c>
-      <c r="E6">
-        <v>-83.375349999999997</v>
-      </c>
-      <c r="F6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="H6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="R6" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="27">
-        <v>0.76612268518518523</v>
-      </c>
-      <c r="U6">
-        <v>35</v>
-      </c>
-      <c r="V6">
-        <v>30</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0.1</v>
-      </c>
-      <c r="Y6">
-        <v>23.83</v>
-      </c>
-      <c r="Z6">
-        <v>15.52</v>
-      </c>
-      <c r="AD6">
-        <v>16.8</v>
+        <v>177</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -2463,10 +2463,58 @@
         <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>39.866799999999998</v>
+      </c>
+      <c r="E7">
+        <v>-83.375079999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0.82959490740740749</v>
+      </c>
+      <c r="U7">
+        <v>35</v>
+      </c>
+      <c r="V7">
+        <v>35</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0.1</v>
+      </c>
+      <c r="Y7">
+        <v>23.12</v>
+      </c>
+      <c r="Z7">
+        <v>14.83</v>
+      </c>
+      <c r="AD7">
+        <v>12.4</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -2522,58 +2570,67 @@
         <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>178</v>
       </c>
       <c r="D8">
-        <v>39.866799999999998</v>
+        <v>39.874000000000002</v>
       </c>
       <c r="E8">
-        <v>-83.375079999999997</v>
+        <v>-83.374070000000003</v>
       </c>
       <c r="F8" t="s">
         <v>179</v>
       </c>
       <c r="G8" s="26">
-        <v>0.64236111111111105</v>
+        <v>0.61319444444444449</v>
       </c>
       <c r="H8" t="s">
         <v>180</v>
       </c>
       <c r="I8" s="26">
-        <v>0.44027777777777777</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" t="s">
+        <v>186</v>
       </c>
       <c r="R8" t="s">
         <v>179</v>
       </c>
       <c r="S8" s="27">
-        <v>0.82959490740740749</v>
+        <v>0.73298611111111101</v>
       </c>
       <c r="U8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X8">
         <v>0.1</v>
       </c>
       <c r="Y8">
-        <v>23.12</v>
+        <v>24.05</v>
       </c>
       <c r="Z8">
-        <v>14.83</v>
+        <v>14.06</v>
       </c>
       <c r="AD8">
-        <v>12.4</v>
+        <v>15.9</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -2629,46 +2686,43 @@
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
       </c>
       <c r="D9">
-        <v>39.874000000000002</v>
+        <v>39.871267899999999</v>
       </c>
       <c r="E9">
-        <v>-83.374070000000003</v>
+        <v>-83.376233099999993</v>
       </c>
       <c r="F9" t="s">
         <v>179</v>
       </c>
       <c r="G9" s="26">
-        <v>0.61319444444444449</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="H9" t="s">
         <v>180</v>
       </c>
       <c r="I9" s="26">
-        <v>0.3840277777777778</v>
+        <v>0.40625</v>
       </c>
       <c r="J9">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="R9" t="s">
         <v>179</v>
       </c>
       <c r="S9" s="27">
-        <v>0.73298611111111101</v>
+        <v>0.75515046296296295</v>
       </c>
       <c r="U9">
         <v>30</v>
@@ -2677,19 +2731,19 @@
         <v>30</v>
       </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0.1</v>
       </c>
       <c r="Y9">
-        <v>24.05</v>
+        <v>24.1</v>
       </c>
       <c r="Z9">
-        <v>14.06</v>
+        <v>16.04</v>
       </c>
       <c r="AD9">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -2745,64 +2799,10 @@
         <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10">
-        <v>39.871267899999999</v>
-      </c>
-      <c r="E10">
-        <v>-83.376233099999993</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0.62430555555555556</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="26">
-        <v>0.40625</v>
-      </c>
-      <c r="J10">
-        <v>63</v>
-      </c>
-      <c r="L10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" t="s">
-        <v>196</v>
-      </c>
-      <c r="R10" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="27">
-        <v>0.75515046296296295</v>
-      </c>
-      <c r="U10">
-        <v>30</v>
-      </c>
-      <c r="V10">
-        <v>30</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0.1</v>
-      </c>
-      <c r="Y10">
-        <v>24.1</v>
-      </c>
-      <c r="Z10">
-        <v>16.04</v>
-      </c>
-      <c r="AD10">
-        <v>15.1</v>
+        <v>177</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -2858,10 +2858,61 @@
         <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D11">
+        <v>39.868099999999998</v>
+      </c>
+      <c r="E11">
+        <v>-83.374619999999993</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0.68662037037037038</v>
+      </c>
+      <c r="T11">
+        <v>31.5</v>
+      </c>
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="V11">
+        <v>45</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0.1</v>
+      </c>
+      <c r="Y11">
+        <v>23.29</v>
+      </c>
+      <c r="Z11">
+        <v>12.7</v>
+      </c>
+      <c r="AD11">
+        <v>18.100000000000001</v>
       </c>
       <c r="AG11">
         <v>1</v>
@@ -2917,61 +2968,10 @@
         <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12">
-        <v>39.868099999999998</v>
-      </c>
-      <c r="E12">
-        <v>-83.374619999999993</v>
-      </c>
-      <c r="F12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0.44236111111111115</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="27">
-        <v>0.68662037037037038</v>
-      </c>
-      <c r="T12">
-        <v>31.5</v>
-      </c>
-      <c r="U12">
-        <v>40</v>
-      </c>
-      <c r="V12">
-        <v>45</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>0.1</v>
-      </c>
-      <c r="Y12">
-        <v>23.29</v>
-      </c>
-      <c r="Z12">
-        <v>12.7</v>
-      </c>
-      <c r="AD12">
-        <v>18.100000000000001</v>
+        <v>177</v>
       </c>
       <c r="AG12">
         <v>1</v>
@@ -3027,10 +3027,67 @@
         <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D13">
+        <v>39.87332</v>
+      </c>
+      <c r="E13">
+        <v>-83.37379</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="H13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="J13">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s">
+        <v>190</v>
+      </c>
+      <c r="N13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" t="s">
+        <v>192</v>
+      </c>
+      <c r="R13" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0.74185185185185187</v>
+      </c>
+      <c r="U13">
+        <v>35</v>
+      </c>
+      <c r="V13">
+        <v>35</v>
+      </c>
+      <c r="W13">
+        <v>0.8</v>
+      </c>
+      <c r="X13">
+        <v>0.1</v>
+      </c>
+      <c r="Y13">
+        <v>24.2</v>
+      </c>
+      <c r="Z13">
+        <v>14.91</v>
+      </c>
+      <c r="AD13">
+        <v>14.8</v>
       </c>
       <c r="AG13">
         <v>1</v>
@@ -3086,67 +3143,10 @@
         <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14">
-        <v>39.87332</v>
-      </c>
-      <c r="E14">
-        <v>-83.37379</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="H14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0.39444444444444443</v>
-      </c>
-      <c r="J14">
-        <v>160</v>
-      </c>
-      <c r="L14" t="s">
-        <v>190</v>
-      </c>
-      <c r="N14" t="s">
-        <v>191</v>
-      </c>
-      <c r="P14" t="s">
-        <v>192</v>
-      </c>
-      <c r="R14" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="27">
-        <v>0.74185185185185187</v>
-      </c>
-      <c r="U14">
-        <v>35</v>
-      </c>
-      <c r="V14">
-        <v>35</v>
-      </c>
-      <c r="W14">
-        <v>0.8</v>
-      </c>
-      <c r="X14">
-        <v>0.1</v>
-      </c>
-      <c r="Y14">
-        <v>24.2</v>
-      </c>
-      <c r="Z14">
-        <v>14.91</v>
-      </c>
-      <c r="AD14">
-        <v>14.8</v>
+        <v>177</v>
       </c>
       <c r="AG14">
         <v>1</v>
@@ -3202,10 +3202,43 @@
         <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D15">
+        <v>39.868879999999997</v>
+      </c>
+      <c r="E15">
+        <v>-83.375389999999996</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="27">
+        <v>0.80565972222222226</v>
+      </c>
+      <c r="U15">
+        <v>40</v>
+      </c>
+      <c r="V15">
+        <v>40</v>
       </c>
       <c r="AG15">
         <v>1</v>
@@ -3261,43 +3294,64 @@
         <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
       </c>
       <c r="D16">
-        <v>39.868879999999997</v>
+        <v>39.870530000000002</v>
       </c>
       <c r="E16">
-        <v>-83.375389999999996</v>
+        <v>-83.375020000000006</v>
       </c>
       <c r="F16" t="s">
         <v>179</v>
       </c>
       <c r="G16" s="26">
-        <v>0.6333333333333333</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="H16" t="s">
         <v>180</v>
       </c>
       <c r="I16" s="26">
-        <v>0.4201388888888889</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" t="s">
+        <v>199</v>
       </c>
       <c r="R16" t="s">
         <v>179</v>
       </c>
       <c r="S16" s="27">
-        <v>0.80565972222222226</v>
+        <v>0.76211805555555545</v>
       </c>
       <c r="U16">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V16">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0.1</v>
+      </c>
+      <c r="Y16">
+        <v>23.84</v>
+      </c>
+      <c r="Z16">
+        <v>15.41</v>
+      </c>
+      <c r="AD16">
+        <v>16.399999999999999</v>
       </c>
       <c r="AG16">
         <v>1</v>
@@ -3353,64 +3407,67 @@
         <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
       </c>
       <c r="D17">
-        <v>39.870530000000002</v>
+        <v>39.873399999999997</v>
       </c>
       <c r="E17">
-        <v>-83.375020000000006</v>
+        <v>-83.374629999999996</v>
       </c>
       <c r="F17" t="s">
         <v>179</v>
       </c>
       <c r="G17" s="26">
-        <v>0.62638888888888888</v>
+        <v>0.62013888888888891</v>
       </c>
       <c r="H17" t="s">
         <v>180</v>
       </c>
       <c r="I17" s="26">
-        <v>0.41250000000000003</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="J17">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="P17" t="s">
+        <v>195</v>
       </c>
       <c r="R17" t="s">
         <v>179</v>
       </c>
       <c r="S17" s="27">
-        <v>0.76211805555555545</v>
+        <v>0.74861111111111101</v>
       </c>
       <c r="U17">
         <v>30</v>
       </c>
       <c r="V17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X17">
         <v>0.1</v>
       </c>
       <c r="Y17">
-        <v>23.84</v>
+        <v>23.56</v>
       </c>
       <c r="Z17">
-        <v>15.41</v>
+        <v>14.23</v>
       </c>
       <c r="AD17">
-        <v>16.399999999999999</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AG17">
         <v>1</v>
@@ -3466,67 +3523,67 @@
         <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
       </c>
       <c r="D18">
-        <v>39.873399999999997</v>
+        <v>39.865870000000001</v>
       </c>
       <c r="E18">
-        <v>-83.374629999999996</v>
+        <v>-83.376850000000005</v>
       </c>
       <c r="F18" t="s">
         <v>179</v>
       </c>
       <c r="G18" s="26">
-        <v>0.62013888888888891</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="H18" t="s">
         <v>180</v>
       </c>
       <c r="I18" s="26">
-        <v>0.39861111111111108</v>
+        <v>0.43263888888888885</v>
       </c>
       <c r="J18">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="R18" t="s">
         <v>179</v>
       </c>
       <c r="S18" s="27">
-        <v>0.74861111111111101</v>
+        <v>0.82535879629629638</v>
       </c>
       <c r="U18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V18">
         <v>35</v>
       </c>
       <c r="W18">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="X18">
         <v>0.1</v>
       </c>
       <c r="Y18">
-        <v>23.56</v>
+        <v>22.25</v>
       </c>
       <c r="Z18">
-        <v>14.23</v>
+        <v>13.97</v>
       </c>
       <c r="AD18">
-        <v>18.399999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="AG18">
         <v>1</v>
@@ -3551,6 +3608,18 @@
       </c>
       <c r="AP18" t="s">
         <v>162</v>
+      </c>
+      <c r="AQ18">
+        <v>0.8</v>
+      </c>
+      <c r="AR18">
+        <v>21.83</v>
+      </c>
+      <c r="AS18">
+        <v>13.27</v>
+      </c>
+      <c r="AW18">
+        <v>23.2</v>
       </c>
       <c r="AZ18">
         <v>1</v>
@@ -3582,67 +3651,67 @@
         <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
       </c>
       <c r="D19">
-        <v>39.865870000000001</v>
+        <v>39.874049999999997</v>
       </c>
       <c r="E19">
-        <v>-83.376850000000005</v>
+        <v>-83.373279999999994</v>
       </c>
       <c r="F19" t="s">
         <v>179</v>
       </c>
       <c r="G19" s="26">
-        <v>0.63958333333333328</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="H19" t="s">
         <v>180</v>
       </c>
       <c r="I19" s="26">
-        <v>0.43263888888888885</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="J19">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="R19" t="s">
         <v>179</v>
       </c>
       <c r="S19" s="27">
-        <v>0.82535879629629638</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="U19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="X19">
         <v>0.1</v>
       </c>
       <c r="Y19">
-        <v>22.25</v>
+        <v>23.96</v>
       </c>
       <c r="Z19">
-        <v>13.97</v>
+        <v>13.95</v>
       </c>
       <c r="AD19">
-        <v>20.3</v>
+        <v>15.5</v>
       </c>
       <c r="AG19">
         <v>1</v>
@@ -3667,18 +3736,6 @@
       </c>
       <c r="AP19" t="s">
         <v>162</v>
-      </c>
-      <c r="AQ19">
-        <v>0.8</v>
-      </c>
-      <c r="AR19">
-        <v>21.83</v>
-      </c>
-      <c r="AS19">
-        <v>13.27</v>
-      </c>
-      <c r="AW19">
-        <v>23.2</v>
       </c>
       <c r="AZ19">
         <v>1</v>
@@ -3710,67 +3767,64 @@
         <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>178</v>
       </c>
       <c r="D20">
-        <v>39.874049999999997</v>
+        <v>39.868000000000002</v>
       </c>
       <c r="E20">
-        <v>-83.373279999999994</v>
+        <v>-83.376199999999997</v>
       </c>
       <c r="F20" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="26">
-        <v>0.61527777777777781</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="H20" t="s">
         <v>180</v>
       </c>
       <c r="I20" s="26">
-        <v>0.38055555555555554</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="J20">
-        <v>294</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="R20" t="s">
         <v>179</v>
       </c>
       <c r="S20" s="27">
-        <v>0.7284722222222223</v>
+        <v>0.81375000000000008</v>
       </c>
       <c r="U20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W20">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="X20">
         <v>0.1</v>
       </c>
       <c r="Y20">
-        <v>23.96</v>
+        <v>23.66</v>
       </c>
       <c r="Z20">
-        <v>13.95</v>
+        <v>15.21</v>
       </c>
       <c r="AD20">
-        <v>15.5</v>
+        <v>18.7</v>
       </c>
       <c r="AG20">
         <v>1</v>
@@ -3795,6 +3849,18 @@
       </c>
       <c r="AP20" t="s">
         <v>162</v>
+      </c>
+      <c r="AQ20">
+        <v>0.8</v>
+      </c>
+      <c r="AR20">
+        <v>22.22</v>
+      </c>
+      <c r="AS20">
+        <v>11.14</v>
+      </c>
+      <c r="AW20">
+        <v>30.4</v>
       </c>
       <c r="AZ20">
         <v>1</v>
@@ -3826,64 +3892,67 @@
         <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
       </c>
       <c r="D21">
-        <v>39.868000000000002</v>
+        <v>39.876649999999998</v>
       </c>
       <c r="E21">
-        <v>-83.376199999999997</v>
+        <v>-83.372569999999996</v>
       </c>
       <c r="F21" t="s">
         <v>179</v>
       </c>
       <c r="G21" s="26">
-        <v>0.63541666666666663</v>
+        <v>0.60625000000000007</v>
       </c>
       <c r="H21" t="s">
         <v>180</v>
       </c>
       <c r="I21" s="26">
-        <v>0.42430555555555555</v>
+        <v>0.37361111111111112</v>
       </c>
       <c r="J21">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>182</v>
+      </c>
+      <c r="P21" t="s">
+        <v>183</v>
       </c>
       <c r="R21" t="s">
         <v>179</v>
       </c>
       <c r="S21" s="27">
-        <v>0.81375000000000008</v>
+        <v>0.71618055555555549</v>
       </c>
       <c r="U21">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V21">
         <v>35</v>
       </c>
       <c r="W21">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0.1</v>
       </c>
       <c r="Y21">
-        <v>23.66</v>
+        <v>24.23</v>
       </c>
       <c r="Z21">
-        <v>15.21</v>
+        <v>12.2</v>
       </c>
       <c r="AD21">
-        <v>18.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AG21">
         <v>1</v>
@@ -3908,18 +3977,6 @@
       </c>
       <c r="AP21" t="s">
         <v>162</v>
-      </c>
-      <c r="AQ21">
-        <v>0.8</v>
-      </c>
-      <c r="AR21">
-        <v>22.22</v>
-      </c>
-      <c r="AS21">
-        <v>11.14</v>
-      </c>
-      <c r="AW21">
-        <v>30.4</v>
       </c>
       <c r="AZ21">
         <v>1</v>
@@ -3951,67 +4008,10 @@
         <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22">
-        <v>39.876649999999998</v>
-      </c>
-      <c r="E22">
-        <v>-83.372569999999996</v>
-      </c>
-      <c r="F22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0.60625000000000007</v>
-      </c>
-      <c r="H22" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="26">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="J22">
-        <v>95</v>
-      </c>
-      <c r="L22" t="s">
-        <v>181</v>
-      </c>
-      <c r="N22" t="s">
-        <v>182</v>
-      </c>
-      <c r="P22" t="s">
-        <v>183</v>
-      </c>
-      <c r="R22" t="s">
-        <v>179</v>
-      </c>
-      <c r="S22" s="27">
-        <v>0.71618055555555549</v>
-      </c>
-      <c r="U22">
-        <v>30</v>
-      </c>
-      <c r="V22">
-        <v>35</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0.1</v>
-      </c>
-      <c r="Y22">
-        <v>24.23</v>
-      </c>
-      <c r="Z22">
-        <v>12.2</v>
-      </c>
-      <c r="AD22">
-        <v>16.399999999999999</v>
+        <v>177</v>
       </c>
       <c r="AG22">
         <v>1</v>
@@ -4067,10 +4067,67 @@
         <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D23">
+        <v>39.873370000000001</v>
+      </c>
+      <c r="E23">
+        <v>-83.373720000000006</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="H23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="J23">
+        <v>55</v>
+      </c>
+      <c r="K23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R23" t="s">
+        <v>179</v>
+      </c>
+      <c r="S23" s="27">
+        <v>0.73895833333333327</v>
+      </c>
+      <c r="U23">
+        <v>35</v>
+      </c>
+      <c r="V23">
+        <v>35</v>
+      </c>
+      <c r="W23">
+        <v>0.8</v>
+      </c>
+      <c r="X23">
+        <v>0.1</v>
+      </c>
+      <c r="Y23">
+        <v>24.14</v>
+      </c>
+      <c r="Z23">
+        <v>14.62</v>
+      </c>
+      <c r="AD23">
+        <v>15.1</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -4126,115 +4183,10 @@
         <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24">
-        <v>39.873370000000001</v>
-      </c>
-      <c r="E24">
-        <v>-83.373720000000006</v>
-      </c>
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0.73263888888888884</v>
-      </c>
-      <c r="H24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="J24">
-        <v>55</v>
-      </c>
-      <c r="K24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L24" t="s">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s">
-        <v>209</v>
-      </c>
-      <c r="R24" t="s">
-        <v>179</v>
-      </c>
-      <c r="S24" s="27">
-        <v>0.73895833333333327</v>
-      </c>
-      <c r="U24">
-        <v>35</v>
-      </c>
-      <c r="V24">
-        <v>35</v>
-      </c>
-      <c r="W24">
-        <v>0.8</v>
-      </c>
-      <c r="X24">
-        <v>0.1</v>
-      </c>
-      <c r="Y24">
-        <v>24.14</v>
-      </c>
-      <c r="Z24">
-        <v>14.62</v>
-      </c>
-      <c r="AD24">
-        <v>15.1</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ24">
-        <v>1</v>
-      </c>
-      <c r="BA24">
-        <v>1</v>
-      </c>
-      <c r="BB24">
-        <v>1</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5328,62 +5280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5854,7 +5750,102 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E0573EC-E2D0-49F0-8C35-8D2ED55A1CB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5866,24 +5857,4 @@
     <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E0573EC-E2D0-49F0-8C35-8D2ED55A1CB7}"/>
 </file>
--- a/SuRGE_Sharepoint/data/CIN/CH4_211_madison/dataSheets/surgeData211.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_211_madison/dataSheets/surgeData211.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_211_madison/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_211_madison/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="899" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89787CF2-F44C-4E01-9CAB-B5725700A06A}"/>
+  <xr:revisionPtr revIDLastSave="910" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AE455E4-63DE-4F10-93B4-A0E7383F2C31}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1728,8 +1728,8 @@
   <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO19" sqref="BO19"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW16" sqref="AW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2211,15 +2211,6 @@
       <c r="BI3" t="s">
         <v>162</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>212</v>
-      </c>
       <c r="BM3">
         <v>1.7473000000000001</v>
       </c>
@@ -3240,6 +3231,21 @@
       <c r="V15">
         <v>40</v>
       </c>
+      <c r="W15">
+        <v>1.2</v>
+      </c>
+      <c r="X15">
+        <v>0.1</v>
+      </c>
+      <c r="Y15">
+        <v>23.3</v>
+      </c>
+      <c r="Z15">
+        <v>14.33</v>
+      </c>
+      <c r="AD15">
+        <v>17.3</v>
+      </c>
       <c r="AG15">
         <v>1</v>
       </c>
@@ -3264,6 +3270,18 @@
       <c r="AP15" t="s">
         <v>162</v>
       </c>
+      <c r="AQ15">
+        <v>0.8</v>
+      </c>
+      <c r="AR15">
+        <v>23.17</v>
+      </c>
+      <c r="AS15">
+        <v>14.97</v>
+      </c>
+      <c r="AW15">
+        <v>19.100000000000001</v>
+      </c>
       <c r="AZ15">
         <v>1</v>
       </c>
@@ -3287,6 +3305,15 @@
       </c>
       <c r="BI15" t="s">
         <v>162</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
@@ -5280,6 +5307,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5750,63 +5833,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E0573EC-E2D0-49F0-8C35-8D2ED55A1CB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5827,34 +5884,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>